--- a/各种保养记录.xlsx
+++ b/各种保养记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/me/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E952AE0D-92FA-4F46-A8E9-09D9540D3AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB984D2-48E4-7745-AC1D-3127F39B85A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{D6D47B74-2D32-AE43-AFD8-6BC733F8737F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{D6D47B74-2D32-AE43-AFD8-6BC733F8737F}"/>
   </bookViews>
   <sheets>
     <sheet name="沪CGR757" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,6 +80,26 @@
   </si>
   <si>
     <t>每年换前三级过滤和第五级过滤，每两年换一次4级过滤（RO超滤膜）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众交通市西(虹桥)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油机滤，机油升级为壳牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海振新</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,19 +552,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB39432D-5A13-4C4E-BBC3-CF1C8E1B1CE4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" thickBot="1">
+    <row r="1" spans="1:4" ht="20" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,8 +575,11 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" thickTop="1">
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickTop="1">
       <c r="A2" s="3">
         <v>43862</v>
       </c>
@@ -565,8 +589,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>44013</v>
       </c>
@@ -576,8 +603,11 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>44288</v>
       </c>
@@ -587,6 +617,65 @@
       <c r="C4">
         <v>932</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>44484</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>294</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -598,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1B1EC2-75E1-1747-9972-E7119FAAF90C}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/各种保养记录.xlsx
+++ b/各种保养记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/me/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB984D2-48E4-7745-AC1D-3127F39B85A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B6598-2441-49CF-8620-C2D44D0A6A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{D6D47B74-2D32-AE43-AFD8-6BC733F8737F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6D47B74-2D32-AE43-AFD8-6BC733F8737F}"/>
   </bookViews>
   <sheets>
     <sheet name="沪CGR757" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>上海振新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗车店</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,32 +524,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE3C45-3035-9D44-B37C-38F3296C4BAD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" thickBot="1">
+    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" thickTop="1">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44071</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44539</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>380</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -554,18 +583,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB39432D-5A13-4C4E-BBC3-CF1C8E1B1CE4}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="64.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" thickBot="1">
+    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1">
+    <row r="2" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>43862</v>
       </c>
@@ -593,7 +622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44013</v>
       </c>
@@ -607,7 +636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44288</v>
       </c>
@@ -621,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44484</v>
       </c>
@@ -635,46 +664,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
     </row>
   </sheetData>
@@ -691,14 +720,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="6"/>
-    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="6"/>
+    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" thickBot="1">
+    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1">
+    <row r="2" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44435</v>
       </c>
@@ -726,141 +755,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
